--- a/paper_data.xlsx
+++ b/paper_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/R_UF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/R_UF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A977DA-F60E-B44B-B319-0FADCE042056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9960821-D920-5F4E-9A20-35FB4C555183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10700" yWindow="1140" windowWidth="22220" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15400" yWindow="3000" windowWidth="22220" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid_29019" sheetId="1" r:id="rId1"/>
@@ -884,7 +884,7 @@
   <dimension ref="A1:B160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD25"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/paper_data.xlsx
+++ b/paper_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/R_UF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/R_UF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9960821-D920-5F4E-9A20-35FB4C555183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5A62AB-3D27-5D48-82A6-545166761C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15400" yWindow="3000" windowWidth="22220" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14220" yWindow="840" windowWidth="22220" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid_29019" sheetId="1" r:id="rId1"/>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B160"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -903,31 +903,31 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44058</v>
+        <v>44082</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44059</v>
+        <v>44083</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44060</v>
+        <v>44084</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44061</v>
+        <v>44085</v>
       </c>
       <c r="B5">
         <v>34</v>
@@ -935,1242 +935,962 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44062</v>
+        <v>44086</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44063</v>
+        <v>44087</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44064</v>
+        <v>44088</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44065</v>
+        <v>44089</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44066</v>
+        <v>44090</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44067</v>
+        <v>44091</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44068</v>
+        <v>44092</v>
       </c>
       <c r="B12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44069</v>
+        <v>44093</v>
       </c>
       <c r="B13">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44070</v>
+        <v>44094</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44071</v>
+        <v>44095</v>
       </c>
       <c r="B15">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44072</v>
+        <v>44096</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44073</v>
+        <v>44097</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44074</v>
+        <v>44098</v>
       </c>
       <c r="B18">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44075</v>
+        <v>44099</v>
       </c>
       <c r="B19">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44076</v>
+        <v>44100</v>
       </c>
       <c r="B20">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44077</v>
+        <v>44101</v>
       </c>
       <c r="B21">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44078</v>
+        <v>44102</v>
       </c>
       <c r="B22">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44079</v>
+        <v>44103</v>
       </c>
       <c r="B23">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44080</v>
+        <v>44104</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44081</v>
+        <v>44105</v>
       </c>
       <c r="B25">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44082</v>
+        <v>44106</v>
       </c>
       <c r="B26">
-        <v>32</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44083</v>
+        <v>44107</v>
       </c>
       <c r="B27">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44084</v>
+        <v>44108</v>
       </c>
       <c r="B28">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44085</v>
+        <v>44109</v>
       </c>
       <c r="B29">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44086</v>
+        <v>44110</v>
       </c>
       <c r="B30">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44087</v>
+        <v>44111</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44088</v>
+        <v>44112</v>
       </c>
       <c r="B32">
-        <v>27</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44089</v>
+        <v>44113</v>
       </c>
       <c r="B33">
-        <v>19</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44090</v>
+        <v>44114</v>
       </c>
       <c r="B34">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44091</v>
+        <v>44115</v>
       </c>
       <c r="B35">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44092</v>
+        <v>44116</v>
       </c>
       <c r="B36">
-        <v>25</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44093</v>
+        <v>44117</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44094</v>
+        <v>44118</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44095</v>
+        <v>44119</v>
       </c>
       <c r="B39">
-        <v>27</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44096</v>
+        <v>44120</v>
       </c>
       <c r="B40">
-        <v>24</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44097</v>
+        <v>44121</v>
       </c>
       <c r="B41">
-        <v>29</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44098</v>
+        <v>44122</v>
       </c>
       <c r="B42">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44099</v>
+        <v>44123</v>
       </c>
       <c r="B43">
-        <v>34</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44100</v>
+        <v>44124</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44101</v>
+        <v>44125</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44102</v>
+        <v>44126</v>
       </c>
       <c r="B46">
-        <v>36</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44103</v>
+        <v>44127</v>
       </c>
       <c r="B47">
-        <v>53</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44104</v>
+        <v>44128</v>
       </c>
       <c r="B48">
-        <v>58</v>
+        <v>525</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44105</v>
+        <v>44129</v>
       </c>
       <c r="B49">
-        <v>80</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44106</v>
+        <v>44130</v>
       </c>
       <c r="B50">
-        <v>92</v>
+        <v>342</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44107</v>
+        <v>44131</v>
       </c>
       <c r="B51">
-        <v>47</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44108</v>
+        <v>44132</v>
       </c>
       <c r="B52">
-        <v>19</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44109</v>
+        <v>44133</v>
       </c>
       <c r="B53">
-        <v>78</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44110</v>
+        <v>44134</v>
       </c>
       <c r="B54">
-        <v>85</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44111</v>
+        <v>44135</v>
       </c>
       <c r="B55">
-        <v>96</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44112</v>
+        <v>44136</v>
       </c>
       <c r="B56">
-        <v>117</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44113</v>
+        <v>44137</v>
       </c>
       <c r="B57">
-        <v>153</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44114</v>
+        <v>44138</v>
       </c>
       <c r="B58">
-        <v>60</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44115</v>
+        <v>44139</v>
       </c>
       <c r="B59">
-        <v>54</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44116</v>
+        <v>44140</v>
       </c>
       <c r="B60">
-        <v>163</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44117</v>
+        <v>44141</v>
       </c>
       <c r="B61">
-        <v>173</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44118</v>
+        <v>44142</v>
       </c>
       <c r="B62">
-        <v>177</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44119</v>
+        <v>44143</v>
       </c>
       <c r="B63">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44120</v>
+        <v>44144</v>
       </c>
       <c r="B64">
-        <v>221</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44121</v>
+        <v>44145</v>
       </c>
       <c r="B65">
-        <v>113</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44122</v>
+        <v>44146</v>
       </c>
       <c r="B66">
-        <v>68</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44123</v>
+        <v>44147</v>
       </c>
       <c r="B67">
-        <v>239</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44124</v>
+        <v>44148</v>
       </c>
       <c r="B68">
-        <v>203</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44125</v>
+        <v>44149</v>
       </c>
       <c r="B69">
-        <v>352</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44126</v>
+        <v>44150</v>
       </c>
       <c r="B70">
-        <v>216</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44127</v>
+        <v>44151</v>
       </c>
       <c r="B71">
-        <v>336</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44128</v>
+        <v>44152</v>
       </c>
       <c r="B72">
-        <v>525</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44129</v>
+        <v>44153</v>
       </c>
       <c r="B73">
-        <v>139</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44130</v>
+        <v>44154</v>
       </c>
       <c r="B74">
-        <v>342</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44131</v>
+        <v>44155</v>
       </c>
       <c r="B75">
-        <v>359</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44132</v>
+        <v>44156</v>
       </c>
       <c r="B76">
-        <v>486</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44133</v>
+        <v>44157</v>
       </c>
       <c r="B77">
-        <v>459</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44134</v>
+        <v>44158</v>
       </c>
       <c r="B78">
-        <v>360</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44135</v>
+        <v>44159</v>
       </c>
       <c r="B79">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44136</v>
+        <v>44160</v>
       </c>
       <c r="B80">
-        <v>161</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>44137</v>
+        <v>44161</v>
       </c>
       <c r="B81">
-        <v>264</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>44138</v>
+        <v>44162</v>
       </c>
       <c r="B82">
-        <v>304</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>44139</v>
+        <v>44163</v>
       </c>
       <c r="B83">
-        <v>443</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>44140</v>
+        <v>44164</v>
       </c>
       <c r="B84">
-        <v>385</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>44141</v>
+        <v>44165</v>
       </c>
       <c r="B85">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>44142</v>
+        <v>44166</v>
       </c>
       <c r="B86">
-        <v>132</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>44143</v>
+        <v>44167</v>
       </c>
       <c r="B87">
-        <v>188</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>44144</v>
+        <v>44168</v>
       </c>
       <c r="B88">
-        <v>262</v>
+        <v>217</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>44145</v>
+        <v>44169</v>
       </c>
       <c r="B89">
-        <v>322</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>44146</v>
+        <v>44170</v>
       </c>
       <c r="B90">
-        <v>280</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>44147</v>
+        <v>44171</v>
       </c>
       <c r="B91">
-        <v>216</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>44148</v>
+        <v>44172</v>
       </c>
       <c r="B92">
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>44149</v>
+        <v>44173</v>
       </c>
       <c r="B93">
-        <v>126</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>44150</v>
+        <v>44174</v>
       </c>
       <c r="B94">
-        <v>86</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>44151</v>
+        <v>44175</v>
       </c>
       <c r="B95">
-        <v>216</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>44152</v>
+        <v>44176</v>
       </c>
       <c r="B96">
-        <v>285</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>44153</v>
+        <v>44177</v>
       </c>
       <c r="B97">
-        <v>234</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>44154</v>
+        <v>44178</v>
       </c>
       <c r="B98">
-        <v>200</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>44155</v>
+        <v>44179</v>
       </c>
       <c r="B99">
-        <v>167</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>44156</v>
+        <v>44180</v>
       </c>
       <c r="B100">
-        <v>162</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>44157</v>
+        <v>44181</v>
       </c>
       <c r="B101">
-        <v>80</v>
+        <v>315</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>44158</v>
+        <v>44182</v>
       </c>
       <c r="B102">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>44159</v>
+        <v>44183</v>
       </c>
       <c r="B103">
-        <v>226</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>44160</v>
+        <v>44184</v>
       </c>
       <c r="B104">
-        <v>242</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>44161</v>
+        <v>44185</v>
       </c>
       <c r="B105">
-        <v>205</v>
+        <v>150</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>44162</v>
+        <v>44186</v>
       </c>
       <c r="B106">
-        <v>231</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>44163</v>
+        <v>44187</v>
       </c>
       <c r="B107">
-        <v>154</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>44164</v>
+        <v>44188</v>
       </c>
       <c r="B108">
-        <v>105</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>44165</v>
+        <v>44189</v>
       </c>
       <c r="B109">
-        <v>272</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>44166</v>
+        <v>44190</v>
       </c>
       <c r="B110">
-        <v>218</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>44167</v>
+        <v>44191</v>
       </c>
       <c r="B111">
-        <v>268</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>44168</v>
+        <v>44192</v>
       </c>
       <c r="B112">
-        <v>217</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>44169</v>
+        <v>44193</v>
       </c>
       <c r="B113">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>44170</v>
+        <v>44194</v>
       </c>
       <c r="B114">
-        <v>141</v>
+        <v>262</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>44171</v>
+        <v>44195</v>
       </c>
       <c r="B115">
-        <v>135</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>44172</v>
+        <v>44196</v>
       </c>
       <c r="B116">
-        <v>263</v>
+        <v>205</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>44173</v>
+        <v>44197</v>
       </c>
       <c r="B117">
-        <v>275</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>44174</v>
+        <v>44198</v>
       </c>
       <c r="B118">
-        <v>221</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>44175</v>
+        <v>44199</v>
       </c>
       <c r="B119">
-        <v>279</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>44176</v>
+        <v>44200</v>
       </c>
       <c r="B120">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>44177</v>
+        <v>44201</v>
       </c>
       <c r="B121">
-        <v>136</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>44178</v>
+        <v>44202</v>
       </c>
       <c r="B122">
-        <v>132</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>44179</v>
+        <v>44203</v>
       </c>
       <c r="B123">
-        <v>253</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>44180</v>
+        <v>44204</v>
       </c>
       <c r="B124">
-        <v>285</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>44181</v>
+        <v>44205</v>
       </c>
       <c r="B125">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
-        <v>44182</v>
-      </c>
-      <c r="B126">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
-        <v>44183</v>
-      </c>
-      <c r="B127">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
-        <v>44184</v>
-      </c>
-      <c r="B128">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
-        <v>44185</v>
-      </c>
-      <c r="B129">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
-        <v>44186</v>
-      </c>
-      <c r="B130">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
-        <v>44187</v>
-      </c>
-      <c r="B131">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
-        <v>44188</v>
-      </c>
-      <c r="B132">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
-        <v>44189</v>
-      </c>
-      <c r="B133">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
-        <v>44190</v>
-      </c>
-      <c r="B134">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
-        <v>44191</v>
-      </c>
-      <c r="B135">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
-        <v>44192</v>
-      </c>
-      <c r="B136">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
-        <v>44193</v>
-      </c>
-      <c r="B137">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
-        <v>44194</v>
-      </c>
-      <c r="B138">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
-        <v>44195</v>
-      </c>
-      <c r="B139">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
-        <v>44196</v>
-      </c>
-      <c r="B140">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
-        <v>44197</v>
-      </c>
-      <c r="B141">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
-        <v>44198</v>
-      </c>
-      <c r="B142">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
-        <v>44199</v>
-      </c>
-      <c r="B143">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
-        <v>44200</v>
-      </c>
-      <c r="B144">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
-        <v>44201</v>
-      </c>
-      <c r="B145">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
-        <v>44202</v>
-      </c>
-      <c r="B146">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
-        <v>44203</v>
-      </c>
-      <c r="B147">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
-        <v>44204</v>
-      </c>
-      <c r="B148">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
-        <v>44205</v>
-      </c>
-      <c r="B149">
         <v>94</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
-        <v>44206</v>
-      </c>
-      <c r="B150">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
-        <v>44207</v>
-      </c>
-      <c r="B151">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
-        <v>44208</v>
-      </c>
-      <c r="B152">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
-        <v>44209</v>
-      </c>
-      <c r="B153">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
-        <v>44210</v>
-      </c>
-      <c r="B154">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
-        <v>44211</v>
-      </c>
-      <c r="B155">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
-        <v>44212</v>
-      </c>
-      <c r="B156">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
-        <v>44213</v>
-      </c>
-      <c r="B157">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
-        <v>44214</v>
-      </c>
-      <c r="B158">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
-        <v>44215</v>
-      </c>
-      <c r="B159">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
-        <v>44216</v>
-      </c>
-      <c r="B160">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
